--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HN basis profile for slot</t>
+    <t>hn-basis-slot</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-slot</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-slot</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -543,7 +543,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -668,7 +668,7 @@
     <t>The style of appointment or patient that may be booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-AppointmentType-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-AppointmentType-code-vs</t>
   </si>
   <si>
     <t>Slot.schedule</t>
@@ -1084,7 +1084,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,7 +140,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>n/a</t>
@@ -190,10 +190,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Slot.implicitRules</t>
   </si>
   <si>
@@ -290,9 +297,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Slot.extension</t>
   </si>
   <si>
@@ -313,6 +317,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -349,10 +363,56 @@
     <t>External Ids for this item.</t>
   </si>
   <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Slot.identifier.id</t>
+    <t>Slot.serviceCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Slot.serviceType</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -368,194 +428,16 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Slot.identifier.extension</t>
+    <t>Slot.serviceType.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Slot.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Slot.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Slot.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>Slot.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>Slot.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>Slot.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>Slot.serviceCategory</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Slot.serviceCategory.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceCategory.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceCategory.coding</t>
+    <t>Slot.serviceType.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -578,13 +460,13 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system and description must be used {code &gt; '' implies (system &gt; '' and display &gt; '')}</t>
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Slot.serviceCategory.text</t>
+    <t>Slot.serviceType.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -603,33 +485,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Slot.serviceType</t>
-  </si>
-  <si>
-    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
-  </si>
-  <si>
-    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.text</t>
   </si>
   <si>
     <t>Slot.specialty</t>
@@ -684,6 +539,16 @@
     <t>The schedule resource that this slot defines an interval of status information.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
+  </si>
+  <si>
     <t>Slot.status</t>
   </si>
   <si>
@@ -691,6 +556,9 @@
   </si>
   <si>
     <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>The free/busy status of the slot.</t>
@@ -713,6 +581,9 @@
   </si>
   <si>
     <t>Date/Time that the slot is to begin.</t>
+  </si>
+  <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
   </si>
   <si>
     <t>FREEBUSY;FBTYPE=FREE:(start)/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
@@ -1052,7 +923,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1061,15 +932,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.83984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1078,12 +949,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="72.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
@@ -1095,7 +966,7 @@
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="137.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="122.765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="16.20703125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1414,13 +1285,13 @@
         <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>35</v>
@@ -1431,10 +1302,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1457,16 +1328,16 @@
         <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1516,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
@@ -1525,13 +1396,13 @@
         <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>35</v>
@@ -1542,10 +1413,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1568,16 +1439,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1603,13 +1474,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -1627,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -1636,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>35</v>
@@ -1653,14 +1524,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1679,16 +1550,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1738,7 +1609,7 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
@@ -1747,13 +1618,13 @@
         <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>35</v>
@@ -1764,21 +1635,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -1790,16 +1661,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1849,7 +1720,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -1864,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>35</v>
@@ -1875,14 +1746,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1901,16 +1772,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1948,19 +1819,19 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -1969,13 +1840,13 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>35</v>
@@ -1986,14 +1857,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2012,19 +1883,19 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2061,19 +1932,19 @@
         <v>35</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2082,13 +1953,13 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>35</v>
@@ -2099,10 +1970,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2110,7 +1981,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -2125,13 +1996,13 @@
         <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2182,7 +2053,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2191,27 +2062,27 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2222,7 +2093,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
@@ -2231,18 +2102,20 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -2267,13 +2140,11 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -2291,40 +2162,40 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2340,19 +2211,19 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2378,31 +2249,29 @@
         <v>35</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -2411,27 +2280,27 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2448,26 +2317,22 @@
         <v>35</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>35</v>
       </c>
@@ -2491,13 +2356,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -2515,7 +2380,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2527,10 +2392,10 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -2541,21 +2406,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -2564,23 +2429,21 @@
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>35</v>
       </c>
@@ -2604,46 +2467,46 @@
         <v>35</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -2654,10 +2517,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2668,7 +2531,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -2680,19 +2543,19 @@
         <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -2705,7 +2568,7 @@
         <v>35</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>35</v>
@@ -2741,22 +2604,22 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -2767,10 +2630,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2778,7 +2641,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -2793,18 +2656,20 @@
         <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>35</v>
       </c>
@@ -2816,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>35</v>
@@ -2852,7 +2717,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -2861,13 +2726,13 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
@@ -2878,10 +2743,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2892,7 +2757,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -2904,15 +2769,17 @@
         <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>35</v>
@@ -2937,13 +2804,13 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -2961,36 +2828,36 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3010,20 +2877,18 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -3072,7 +2937,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3084,10 +2949,10 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
@@ -3098,14 +2963,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3121,18 +2986,20 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -3157,29 +3024,31 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3188,27 +3057,27 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3219,7 +3088,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3228,19 +3097,23 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>35</v>
       </c>
@@ -3288,22 +3161,22 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
@@ -3314,21 +3187,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3337,21 +3210,23 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
       </c>
@@ -3387,34 +3262,34 @@
         <v>35</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -3425,10 +3300,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3439,7 +3314,7 @@
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3451,20 +3326,18 @@
         <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>35</v>
       </c>
@@ -3488,13 +3361,11 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -3512,36 +3383,36 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3549,7 +3420,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -3564,20 +3435,18 @@
         <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>35</v>
       </c>
@@ -3625,22 +3494,22 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -3651,10 +3520,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3662,10 +3531,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -3677,15 +3546,17 @@
         <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -3710,11 +3581,13 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -3732,36 +3605,36 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3769,7 +3642,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -3781,18 +3654,20 @@
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>35</v>
@@ -3841,47 +3716,47 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -3890,19 +3765,19 @@
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -3940,48 +3815,48 @@
         <v>35</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>35</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3992,7 +3867,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4001,27 +3876,25 @@
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="R27" t="s" s="2">
         <v>35</v>
       </c>
@@ -4065,22 +3938,22 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>180</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -4091,10 +3964,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4114,23 +3987,21 @@
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>35</v>
       </c>
@@ -4178,7 +4049,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4187,1336 +4058,18 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="2"/>
-      <c r="R30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="P33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y34" s="2"/>
-      <c r="Z34" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM40" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T15:53:02+01:00</t>
+    <t>2023-11-19T21:48:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="246">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -369,13 +369,193 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Slot.serviceCategory</t>
+    <t>Slot.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Slot.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Slot.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Slot.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Slot.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Slot.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Slot.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Slot.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory</t>
+  </si>
+  <si>
     <t>A broad categorization of the service that is to be performed during this appointment</t>
   </si>
   <si>
@@ -385,9 +565,6 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
@@ -415,26 +592,7 @@
     <t>Slot.serviceType.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Slot.serviceType.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Slot.serviceType.coding</t>
@@ -540,10 +698,6 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
@@ -923,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -940,7 +1094,7 @@
     <col min="8" max="8" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="19.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.05859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -949,12 +1103,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.60546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.41015625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="72.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
@@ -1981,10 +2135,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>35</v>
@@ -2093,7 +2247,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>35</v>
@@ -2102,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>113</v>
@@ -2113,9 +2267,7 @@
       <c r="M11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>116</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -2140,11 +2292,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -2162,40 +2316,40 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2211,19 +2365,19 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2249,29 +2403,31 @@
         <v>35</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -2283,24 +2439,24 @@
         <v>57</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2317,22 +2473,26 @@
         <v>35</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>35</v>
       </c>
@@ -2356,13 +2516,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -2380,7 +2540,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -2389,13 +2549,13 @@
         <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>35</v>
@@ -2406,21 +2566,21 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -2429,21 +2589,23 @@
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>35</v>
       </c>
@@ -2467,46 +2629,46 @@
         <v>35</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -2517,10 +2679,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2528,10 +2690,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -2543,19 +2705,19 @@
         <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -2568,7 +2730,7 @@
         <v>35</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>35</v>
@@ -2604,22 +2766,22 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>35</v>
@@ -2630,10 +2792,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2641,7 +2803,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
@@ -2656,20 +2818,18 @@
         <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>35</v>
       </c>
@@ -2681,7 +2841,7 @@
         <v>35</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>35</v>
@@ -2717,7 +2877,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -2732,7 +2892,7 @@
         <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>35</v>
@@ -2743,10 +2903,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2757,7 +2917,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>35</v>
@@ -2769,16 +2929,16 @@
         <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2804,13 +2964,13 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -2828,36 +2988,36 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2877,18 +3037,20 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -2937,7 +3099,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -2946,13 +3108,13 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>35</v>
@@ -2963,14 +3125,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -2986,19 +3148,19 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3024,31 +3186,29 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -3060,24 +3220,24 @@
         <v>57</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3100,20 +3260,18 @@
         <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>35</v>
       </c>
@@ -3137,13 +3295,11 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
@@ -3161,7 +3317,7 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -3173,24 +3329,24 @@
         <v>57</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3210,23 +3366,19 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>35</v>
       </c>
@@ -3274,7 +3426,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3283,13 +3435,13 @@
         <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -3300,21 +3452,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>35</v>
@@ -3323,19 +3475,19 @@
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3361,58 +3513,60 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3420,10 +3574,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -3435,18 +3589,20 @@
         <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>35</v>
       </c>
@@ -3494,22 +3650,22 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -3520,10 +3676,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3531,7 +3687,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -3546,18 +3702,20 @@
         <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
       </c>
@@ -3581,13 +3739,13 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -3605,10 +3763,10 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -3620,10 +3778,10 @@
         <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -3631,10 +3789,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3642,10 +3800,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -3657,16 +3815,16 @@
         <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3692,13 +3850,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -3716,13 +3874,13 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>57</v>
@@ -3731,21 +3889,21 @@
         <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3753,7 +3911,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -3765,20 +3923,18 @@
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -3827,47 +3983,47 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>183</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -3879,22 +4035,22 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="Q27" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
         <v>35</v>
       </c>
@@ -3926,34 +4082,34 @@
         <v>35</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>188</v>
+        <v>119</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -3964,10 +4120,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3978,7 +4134,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -3987,21 +4143,23 @@
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>35</v>
       </c>
@@ -4049,27 +4207,915 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="250">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -574,28 +574,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Slot.serviceType</t>
-  </si>
-  <si>
-    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
-  </si>
-  <si>
-    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.id</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.extension</t>
-  </si>
-  <si>
-    <t>Slot.serviceType.coding</t>
+    <t>Slot.serviceCategory.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -624,25 +609,52 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
+    <t>Slot.serviceCategory.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Slot.serviceType</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource</t>
+  </si>
+  <si>
+    <t>The type of appointments that can be booked into this slot (ideally this would be an identifiable service - which is at a location, rather than the location itself). If provided then this overrides the value provided on the availability resource.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceType.coding</t>
+  </si>
+  <si>
     <t>Slot.serviceType.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Slot.specialty</t>
@@ -1077,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1086,8 +1098,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.83984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.5390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.5390625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -3248,7 +3260,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3257,20 +3269,18 @@
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>35</v>
@@ -3295,11 +3305,13 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>35</v>
@@ -3317,47 +3329,47 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -3369,15 +3381,17 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -3414,34 +3428,34 @@
         <v>35</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>35</v>
@@ -3452,14 +3466,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3475,21 +3489,23 @@
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>35</v>
       </c>
@@ -3525,19 +3541,19 @@
         <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -3549,10 +3565,10 @@
         <v>57</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
@@ -3563,10 +3579,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3577,7 +3593,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -3589,19 +3605,19 @@
         <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>35</v>
@@ -3650,22 +3666,22 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -3676,10 +3692,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3690,7 +3706,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -3702,20 +3718,18 @@
         <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>35</v>
       </c>
@@ -3739,13 +3753,11 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -3763,13 +3775,13 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>57</v>
@@ -3778,13 +3790,13 @@
         <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
@@ -3803,7 +3815,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -3812,20 +3824,18 @@
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>35</v>
@@ -3850,13 +3860,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -3874,47 +3884,47 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -3926,15 +3936,17 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -3971,34 +3983,34 @@
         <v>35</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>35</v>
@@ -4009,14 +4021,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4032,21 +4044,23 @@
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>35</v>
       </c>
@@ -4082,19 +4096,19 @@
         <v>35</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4106,10 +4120,10 @@
         <v>57</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>35</v>
@@ -4120,10 +4134,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4134,7 +4148,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -4146,19 +4160,19 @@
         <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>35</v>
@@ -4207,22 +4221,22 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
@@ -4233,10 +4247,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4247,7 +4261,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4259,20 +4273,18 @@
         <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>35</v>
       </c>
@@ -4296,13 +4308,13 @@
         <v>35</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>35</v>
@@ -4320,13 +4332,13 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>57</v>
@@ -4335,13 +4347,13 @@
         <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>35</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30">
@@ -4369,20 +4381,18 @@
         <v>35</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>35</v>
@@ -4407,11 +4417,13 @@
         <v>35</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>35</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>35</v>
@@ -4429,7 +4441,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -4438,38 +4450,38 @@
         <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>35</v>
@@ -4478,19 +4490,19 @@
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>218</v>
+        <v>95</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4528,34 +4540,34 @@
         <v>35</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>219</v>
+        <v>59</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
@@ -4566,10 +4578,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4577,10 +4589,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -4592,18 +4604,20 @@
         <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
       </c>
@@ -4627,13 +4641,13 @@
         <v>35</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>35</v>
@@ -4651,25 +4665,25 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>57</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>35</v>
@@ -4677,10 +4691,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4688,7 +4702,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -4703,18 +4717,20 @@
         <v>46</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>35</v>
       </c>
@@ -4762,10 +4778,10 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -4777,21 +4793,21 @@
         <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>233</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4799,7 +4815,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -4814,16 +4830,16 @@
         <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>228</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4849,13 +4865,11 @@
         <v>35</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>35</v>
@@ -4873,10 +4887,10 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -4888,21 +4902,21 @@
         <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4910,7 +4924,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -4922,25 +4936,25 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="Q35" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
         <v>35</v>
       </c>
@@ -4984,10 +4998,10 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
@@ -4996,10 +5010,10 @@
         <v>57</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>35</v>
@@ -5010,10 +5024,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5021,7 +5035,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5033,19 +5047,19 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5071,13 +5085,13 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>35</v>
@@ -5095,10 +5109,10 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
@@ -5113,9 +5127,453 @@
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>35</v>
+        <v>230</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>35</v>
       </c>
     </row>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4865,7 +4865,7 @@
         <v>35</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3148,10 +3148,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-slot.xlsx
+++ b/StructureDefinition-hn-basis-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
